--- a/DaddyRoutes/DatosRuta.xlsx
+++ b/DaddyRoutes/DatosRuta.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Python Projects\DaddyRoutes\DaddyRoutes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2BDDB-7592-48F8-9710-B4D1BB0EF519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>NOMBRE VENDEDOR</t>
-  </si>
-  <si>
-    <t>UBICACION VENDEDOR</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>UBICACION</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>LATITUD</t>
-  </si>
-  <si>
-    <t>LONGITUD</t>
-  </si>
-  <si>
-    <t>PEDRO SAEZ</t>
-  </si>
-  <si>
-    <t>BURJASSOT, VALENCIA</t>
-  </si>
-  <si>
-    <t>PEDRO MARTINEZ</t>
-  </si>
-  <si>
-    <t>PATERNA, VALENCIA</t>
-  </si>
-  <si>
-    <t>SANTI VALLE</t>
-  </si>
-  <si>
-    <t>QUART DE POBLET, VALENCIA</t>
-  </si>
-  <si>
-    <t>ANTONIO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>XIRIVELLA, VALENCIA</t>
-  </si>
-  <si>
-    <t>ANTONIO SEGRELLES</t>
-  </si>
-  <si>
-    <t>ALBORAYA, VALENCIA</t>
-  </si>
-  <si>
-    <t>VICENTE MARTI</t>
-  </si>
-  <si>
-    <t>PAIPORTA, VALENCIA</t>
-  </si>
-  <si>
-    <t>MIGUEL SANZ</t>
-  </si>
-  <si>
-    <t>DOCTOR MARANON, MISLATA VALENCIA</t>
-  </si>
-  <si>
-    <t>MARIO CAMPOS</t>
-  </si>
-  <si>
-    <t>EMPARRADO 3, MISLATA VALENCIA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,127 +420,1625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE VENDEDOR</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>UBICACION VENDEDOR</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>UBICACION</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>LATITUD</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>LONGITUD</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>PEDRO SAEZ</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>BURJASSOT, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>PEDRO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>PATERNA, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>39.50060000000008</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-0.4395299999999338</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>SANTI VALLE</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>QUART DE POBLET, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>39.48269000000005</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-0.4419899999999757</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>ANTONIO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>XIRIVELLA, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>39.46587000000005</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.4309399999999641</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>ANTONIO SEGRELLES</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>ALBORAYA, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>39.49700000000007</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-0.3525899999999638</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>VICENTE MARTI</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>PAIPORTA, VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>39.42770000000007</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-0.4140699999999242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>MIGUEL SANZ</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>DOCTOR MARANON, MISLATA VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>39.47281419981636</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-0.4206809110262071</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>MARIO CAMPOS</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>EMPARRADO 3, MISLATA VALENCIA</t>
+        </is>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>39.47551001770213</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-0.4180800264785489</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>